--- a/doc/开发计划表v1.0.0.xlsx
+++ b/doc/开发计划表v1.0.0.xlsx
@@ -374,6 +374,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -384,9 +387,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -697,7 +697,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E16" sqref="E16"/>
+      <selection pane="topRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -764,13 +764,13 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -794,9 +794,9 @@
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="15"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
@@ -816,11 +816,11 @@
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -844,9 +844,9 @@
       <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="11" t="s">
         <v>23</v>
       </c>
@@ -868,8 +868,8 @@
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -894,8 +894,8 @@
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
@@ -918,9 +918,9 @@
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -940,9 +940,9 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
@@ -960,9 +960,9 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="5" t="s">
         <v>33</v>
       </c>
@@ -980,10 +980,10 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1008,9 +1008,9 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="16" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -1030,16 +1030,16 @@
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="11" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="15" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="9"/>

--- a/doc/开发计划表v1.0.0.xlsx
+++ b/doc/开发计划表v1.0.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\us\us\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace-us\us\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>需求名称</t>
   </si>
@@ -182,6 +182,18 @@
  "answer":"都满意",
  "memo":"备注"
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9999/answer/export?group=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9999/answer/export?group=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9999/answer/export?group=2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +709,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E12" sqref="E12"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,7 +718,7 @@
     <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.375" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
     <col min="7" max="7" width="37.875" customWidth="1"/>
     <col min="8" max="16" width="20.625" customWidth="1"/>
@@ -923,10 +935,12 @@
       <c r="C8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -943,10 +957,12 @@
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -963,10 +979,12 @@
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -1685,9 +1703,12 @@
     <hyperlink ref="G5" r:id="rId2"/>
     <hyperlink ref="G4" r:id="rId3"/>
     <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6"/>
+    <hyperlink ref="E10" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/doc/开发计划表v1.0.0.xlsx
+++ b/doc/开发计划表v1.0.0.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace-us\us\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15045" windowHeight="4500"/>
   </bookViews>
   <sheets>
     <sheet name="开发计划" sheetId="2" r:id="rId1"/>
@@ -19,7 +14,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$E$1:$M$47</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -709,7 +705,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11:E12"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -887,7 +883,7 @@
       <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -911,7 +907,7 @@
       <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="8" t="s">

--- a/doc/开发计划表v1.0.0.xlsx
+++ b/doc/开发计划表v1.0.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>需求名称</t>
   </si>
@@ -234,6 +234,14 @@
     "start": "0",
     "length": "10"
 }</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9999/question/queryByTeacherNo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9999/question/queryByTeamLeaderNO</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -254,6 +262,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -262,6 +271,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -270,6 +280,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -277,12 +288,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -748,9 +761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E25" sqref="E25"/>
+      <selection pane="topRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1184,10 +1197,12 @@
       <c r="C17" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -1204,7 +1219,7 @@
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E18" s="11" t="s">
@@ -1250,10 +1265,12 @@
       <c r="C20" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -1270,7 +1287,7 @@
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="11" t="s">
@@ -1799,6 +1816,12 @@
   </sheetData>
   <autoFilter ref="E1:M49"/>
   <mergeCells count="13">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B14:B22"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C2:C3"/>
@@ -1806,12 +1829,6 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B14:B22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -1824,6 +1841,8 @@
     <hyperlink ref="E10" r:id="rId7"/>
     <hyperlink ref="E21" r:id="rId8"/>
     <hyperlink ref="E18" r:id="rId9"/>
+    <hyperlink ref="E20" r:id="rId10"/>
+    <hyperlink ref="E17" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/开发计划表v1.0.0.xlsx
+++ b/doc/开发计划表v1.0.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>需求名称</t>
   </si>
@@ -242,6 +242,96 @@
   </si>
   <si>
     <t>http://localhost:9999/question/queryByTeamLeaderNO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9999/answer/saveTeamLeader</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"Y2E5OGIxMTBhODBlZmY4ZjI5YTdjNzAzMjFhOThhNGM",
+ "resultList":[
+  {
+   "questionId":"38325964437331968",
+   "userId":"39334234019733507",
+   "answer":"3"
+  }, {
+   "questionId":"38325964437331969",
+   "userId":"39334234019733507",
+   "answer":"4"
+  }, {
+   "questionId":"38325964437331970",
+   "userId":"39334234019733507",
+   "answer":"5"
+  },{
+   "questionId":"38325964437331971",
+   "userId":"39334234019733507",
+   "answer":"5"
+  },{
+   "questionId":"38325964437331968",
+   "userId":"39334234015539200",
+   "answer":"1"
+  },{
+   "questionId":"38325964437331969",
+   "userId":"39334234015539200",
+   "answer":"2"
+  },{
+   "questionId":"38325964437331970",
+   "userId":"39334234015539200",
+   "answer":"3"
+  },{
+   "questionId":"38325964437331971",
+   "userId":"39334234015539200",
+   "answer":"4"
+  }
+ ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9999/answer/saveTeacher</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"Y2E5OGIxMTBhODBlZmY4ZjI5YTdjNzAzMjFhOThhNGM",
+ "resultList":[
+  {
+   "questionId":"38325988462305280",
+   "userId":"39334234019733508",
+   "answer":"3"
+  }, {
+   "questionId":"38325988462305281",
+   "userId":"39334234019733508",
+   "answer":"4"
+  }, {
+   "questionId":"38325988462305282",
+   "userId":"39334234019733508",
+   "answer":"5"
+  },{
+   "questionId":"38325988462305283",
+   "userId":"39334234019733508",
+   "answer":"5"
+  },{
+   "questionId":"38325988462305280",
+   "userId":"39334234015539200",
+   "answer":"1"
+  },{
+   "questionId":"38325988462305281",
+   "userId":"39334234015539200",
+   "answer":"2"
+  },{
+   "questionId":"38325988462305282",
+   "userId":"39334234015539200",
+   "answer":"3"
+  },{
+   "questionId":"38325988462305283",
+   "userId":"39334234015539200",
+   "answer":"4"
+  }
+ ]
+}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -761,9 +851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E19" sqref="E19"/>
+      <selection pane="topRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1239,15 +1329,19 @@
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="E19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1311,11 +1405,15 @@
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -1816,12 +1914,6 @@
   </sheetData>
   <autoFilter ref="E1:M49"/>
   <mergeCells count="13">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B14:B22"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C2:C3"/>
@@ -1829,6 +1921,12 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B14:B22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -1843,9 +1941,11 @@
     <hyperlink ref="E18" r:id="rId9"/>
     <hyperlink ref="E20" r:id="rId10"/>
     <hyperlink ref="E17" r:id="rId11"/>
+    <hyperlink ref="E19" r:id="rId12"/>
+    <hyperlink ref="E22" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
